--- a/medicine/Mort/Cimetière_de_Glasnevin/Cimetière_de_Glasnevin.xlsx
+++ b/medicine/Mort/Cimetière_de_Glasnevin/Cimetière_de_Glasnevin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Glasnevin</t>
+          <t>Cimetière_de_Glasnevin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Glasnevin, connu aussi sous le nom de cimetière de Prospect, est le plus important cimetière catholique de Dublin avec environ 1.5 million de sépultures. Il se situe à Glasnevin, une ville au nord de Dublin. Le cimetière, qui a ouvert ses portes en 1832, abrite les sépultures de nombreuses personnalités historiques irlandaises, parmi lesquelles Michael Collins, Daniel O'Connell ou Constance Markievicz.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Glasnevin</t>
+          <t>Cimetière_de_Glasnevin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maud Aiken (1898-1978), musicienne irlandaise.
 Kevin Barry, étudiant en médecine et figure de la guerre d'indépendance. Exécuté en 1920, son corps ne sera inhumé au cimetière que le 14 octobre 2001 lors de funérailles nationales.
